--- a/data/trans_dic/P18_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P18_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana</t>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>9,97%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,3; 35,16</t>
+          <t>19,88; 37,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 16,66</t>
+          <t>4,57; 13,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 18,94</t>
+          <t>5,85; 31,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 14,95</t>
+          <t>6,02; 16,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 33,38</t>
+          <t>3,65; 11,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 14,15</t>
+          <t>19,93; 31,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 17,99</t>
+          <t>6,68; 15,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,36</t>
+          <t>10,01; 19,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 32,44</t>
+          <t>9,0; 18,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 13,53</t>
+          <t>8,09; 19,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 15,42</t>
+          <t>21,79; 31,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,97</t>
+          <t>6,73; 12,61</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 21,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 15,87</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 13,71</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>6,71%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>25,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,79%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,32%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>24,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 29,82</t>
+          <t>16,15; 30,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,84</t>
+          <t>3,23; 11,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 17,78</t>
+          <t>5,67; 16,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 15,61</t>
+          <t>3,82; 13,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,13; 32,37</t>
+          <t>2,77; 11,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,07</t>
+          <t>18,85; 32,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 19,8</t>
+          <t>6,41; 15,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 22,59</t>
+          <t>10,52; 22,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,55; 29,06</t>
+          <t>6,12; 16,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,57</t>
+          <t>3,56; 10,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 16,9</t>
+          <t>19,03; 28,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 17,36</t>
+          <t>5,58; 12,29</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 17,53</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 13,02</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 9,49</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 38,89</t>
+          <t>8,74; 47,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,68</t>
+          <t>0,0; 21,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 24,81</t>
+          <t>2,52; 26,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 20,9</t>
+          <t>5,48; 36,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,76; 50,37</t>
+          <t>0,0; 19,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 19,2</t>
+          <t>20,58; 54,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 26,33</t>
+          <t>1,92; 17,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 21,27</t>
+          <t>5,11; 28,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 39,96</t>
+          <t>0,0; 16,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 15,47</t>
+          <t>1,95; 24,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,6; 21,23</t>
+          <t>18,39; 44,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 18,01</t>
+          <t>2,18; 14,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 23,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 22,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 16,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>9,94%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,56%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,27%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>27,1%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 30,63</t>
+          <t>20,15; 32,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 11,9</t>
+          <t>4,79; 10,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 14,71</t>
+          <t>7,59; 20,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,84</t>
+          <t>7,05; 14,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 31,79</t>
+          <t>3,99; 9,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,03</t>
+          <t>22,16; 30,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,12</t>
+          <t>7,24; 13,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,73</t>
+          <t>11,61; 18,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 29,83</t>
+          <t>8,33; 14,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,4</t>
+          <t>6,87; 13,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,98</t>
+          <t>22,36; 29,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 13,65</t>
+          <t>6,73; 10,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 17,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 13,45</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,27; 10,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido disfrutando la vida en ningún momento o casi ningún momento en la última semana (tasa de respuesta: 99,41%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98695</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34368</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47338</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39196</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36785</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>112478</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>52376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>61583</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53622</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70865</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>211173</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>86744</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>108921</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>92817</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>107651</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72228; 137809</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19349; 55261</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21111; 113139</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22932; 63118</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18825; 60264</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>86770; 138931</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33651; 80331</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42170; 83949</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36294; 75483</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45593; 108379</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>174059; 255293</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>62389; 116868</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>77594; 171632</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>68475; 124426</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>74341; 148045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>68253</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22991</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31592</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24621</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>24461</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>85364</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42970</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52836</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34981</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28694</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>153618</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>65961</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>84428</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>59602</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>53155</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>48571; 90649</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11624; 41823</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17791; 52903</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12269; 42494</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11406; 47086</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65499; 111445</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27256; 67720</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35169; 76265</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20512; 54229</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15237; 46641</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>123362; 184721</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43793; 96448</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>59682; 113638</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>40880; 85404</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>33577; 79656</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19960</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8551</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16059</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6470</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28621</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7161</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11273</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4325</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10015</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48580</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13248</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19823</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20384</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16485</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6882; 37577</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21469</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2008; 20956</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4510; 30090</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22311</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15961; 41927</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1909; 17778</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4165; 23466</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13336</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2170; 27560</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28744; 70051</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4325; 29638</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9374; 37394</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10201; 36656</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5988; 38558</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>186908</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>63445</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87481</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>79875</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>67716</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>226463</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102507</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>125692</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>92928</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>109575</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>413371</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>165952</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>213173</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>172804</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>177291</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>149681; 237914</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42208; 93301</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>57208; 155185</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>55270; 110280</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>41645; 102534</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>190632; 262750</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>74486; 138680</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>97124; 157520</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>68346; 120270</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>75693; 152407</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>358417; 469952</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>128566; 205590</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>170233; 284760</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>138794; 215894</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>134540; 230446</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
